--- a/Bitacoras/NRC_163_Grupo_47/Parcial_04/Bitacora_Laboratorio_Parcial_04_NRC_165.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_04/Bitacora_Laboratorio_Parcial_04_NRC_165.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D216C8EF-5A12-4B57-A82C-A64A597B1404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262210ED-5F63-4F3A-8253-2E0F7A77D1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2EE109A-D9C5-422A-BEC7-F5812B761A15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E2EE109A-D9C5-422A-BEC7-F5812B761A15}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Concentrado" sheetId="1" r:id="rId1"/>
+    <sheet name="Asistencia" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
   <si>
     <t>Alumno</t>
   </si>
@@ -212,10 +213,37 @@
     <t>Meneses</t>
   </si>
   <si>
-    <t>P8_Avance</t>
-  </si>
-  <si>
     <t>P8_Discusión</t>
+  </si>
+  <si>
+    <t>P7_Reporte</t>
+  </si>
+  <si>
+    <t>P8_Encuadre</t>
+  </si>
+  <si>
+    <t>P8_Montaje</t>
+  </si>
+  <si>
+    <t>P8_Reporte</t>
+  </si>
+  <si>
+    <t>P9 Encuadre</t>
+  </si>
+  <si>
+    <t>P9 Montaje</t>
+  </si>
+  <si>
+    <t>P9_Discusión</t>
+  </si>
+  <si>
+    <t>P9_Reporte</t>
+  </si>
+  <si>
+    <t>Puntaje</t>
+  </si>
+  <si>
+    <t>Calificación</t>
   </si>
 </sst>
 </file>
@@ -259,9 +287,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,20 +636,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D9CDCB-84B6-4B18-BE49-D3DAB6A2D55C}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,13 +672,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -644,8 +718,26 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -658,8 +750,29 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -672,8 +785,26 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -686,8 +817,29 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -700,8 +852,26 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -714,8 +884,26 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -728,8 +916,26 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -742,8 +948,26 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -756,8 +980,23 @@
       <c r="D10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -770,8 +1009,26 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -784,8 +1041,29 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -798,8 +1076,26 @@
       <c r="D13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -812,8 +1108,23 @@
       <c r="D14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -826,8 +1137,278 @@
       <c r="D15" t="s">
         <v>41</v>
       </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C89B8A-FFF6-440F-99F9-CEDC15DC22BE}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>45357</v>
+      </c>
+      <c r="F1" s="3">
+        <v>45364</v>
+      </c>
+      <c r="G1" s="3">
+        <v>45371</v>
+      </c>
+      <c r="H1" s="3">
+        <v>45385</v>
+      </c>
+      <c r="I1" s="3">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bitacoras/NRC_163_Grupo_47/Parcial_04/Bitacora_Laboratorio_Parcial_04_NRC_165.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_04/Bitacora_Laboratorio_Parcial_04_NRC_165.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262210ED-5F63-4F3A-8253-2E0F7A77D1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835904C9-F875-4854-9D41-5E4FAEF3405D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E2EE109A-D9C5-422A-BEC7-F5812B761A15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2EE109A-D9C5-422A-BEC7-F5812B761A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentrado" sheetId="1" r:id="rId1"/>
     <sheet name="Asistencia" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Concentrado!$A$2:$P$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t>Alumno</t>
   </si>
@@ -244,6 +247,9 @@
   </si>
   <si>
     <t>Calificación</t>
+  </si>
+  <si>
+    <t>Faltas</t>
   </si>
 </sst>
 </file>
@@ -287,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,18 +301,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -636,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D9CDCB-84B6-4B18-BE49-D3DAB6A2D55C}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,504 +672,827 @@
     <col min="13" max="13" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E1" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2">
+        <f>SUM(E1:M1)</f>
+        <v>60</v>
+      </c>
+      <c r="O1" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="P2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="E3" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
         <v>9</v>
       </c>
-      <c r="J2" s="2">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2">
+        <f>SUM(E3:M3)</f>
+        <v>57.5</v>
+      </c>
+      <c r="O3" s="4">
+        <f>(N3/$N$1)*10</f>
+        <v>9.5833333333333339</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
         <v>7</v>
       </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N16" si="0">SUM(E4:M4)</f>
+        <v>46.5</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O16" si="1">(N4/$N$1)*10</f>
+        <v>7.75</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
         <v>9</v>
       </c>
-      <c r="J4" s="2">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="1"/>
+        <v>9.8333333333333321</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
         <v>7</v>
       </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="1"/>
+        <v>5.8333333333333339</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2">
-        <v>5</v>
-      </c>
-      <c r="L8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="1"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>10</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="1"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <v>4</v>
       </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="J11" s="2">
-        <v>5</v>
-      </c>
-      <c r="K11" s="2">
-        <v>5</v>
-      </c>
-      <c r="L11" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
         <v>7</v>
       </c>
-      <c r="J12" s="2">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2">
-        <v>5</v>
-      </c>
-      <c r="L12" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5</v>
+      </c>
+      <c r="M13" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="0"/>
+        <v>46.5</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="2">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
         <v>9</v>
       </c>
-      <c r="J13" s="2">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>10</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="1"/>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="2">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5</v>
-      </c>
-      <c r="J14" s="2">
-        <v>5</v>
-      </c>
-      <c r="K14" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="2">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-      <c r="J15" s="2">
-        <v>5</v>
-      </c>
-      <c r="K15" s="2">
-        <v>5</v>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>5</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:P16" xr:uid="{D1D9CDCB-84B6-4B18-BE49-D3DAB6A2D55C}"/>
+  <conditionalFormatting sqref="E3:M16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1161,22 +1500,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C89B8A-FFF6-440F-99F9-CEDC15DC22BE}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,22 +1529,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="3">
-        <v>45357</v>
+        <v>45364</v>
       </c>
       <c r="F1" s="3">
-        <v>45364</v>
+        <v>45371</v>
       </c>
       <c r="G1" s="3">
-        <v>45371</v>
+        <v>45385</v>
       </c>
       <c r="H1" s="3">
-        <v>45385</v>
+        <v>45392</v>
       </c>
       <c r="I1" s="3">
-        <v>45392</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45399</v>
+      </c>
+      <c r="J1" s="3">
+        <v>45406</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1218,8 +1563,15 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <f>SUM(E2:J2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1232,8 +1584,12 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K15" si="0">SUM(E3:J3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1246,8 +1602,15 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1260,14 +1623,27 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1280,8 +1656,18 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1680,15 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1308,8 +1701,15 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1322,8 +1722,12 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1336,8 +1740,15 @@
       <c r="D10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1350,8 +1761,15 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1364,8 +1782,18 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1378,8 +1806,12 @@
       <c r="D13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1392,8 +1824,18 @@
       <c r="D14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1405,6 +1847,10 @@
       </c>
       <c r="D15" t="s">
         <v>41</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
